--- a/00_source_doc/grahique.xlsx
+++ b/00_source_doc/grahique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Github\Public_Fractal_Julia\00_source_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF57D77-841A-415C-87A6-797C0CA58C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D732124-1AB6-4AB1-83CB-5C690B15DB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BC33957-83C7-40CC-8902-153BE9B49A0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Taille d'un tuile</t>
   </si>
@@ -47,10 +47,16 @@
     <t>Taille du coté de l'image</t>
   </si>
   <si>
-    <t>Nombe en pixel Mega de l'image</t>
+    <t>Poids du binaire  long en Mo</t>
   </si>
   <si>
-    <t>Poid de l'image en Mo</t>
+    <t>Nombre en pixel Méga de l'image</t>
+  </si>
+  <si>
+    <t>Poids de l'image en Mo</t>
+  </si>
+  <si>
+    <t>Poids du binaire  Int en Mo</t>
   </si>
 </sst>
 </file>
@@ -59,7 +65,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,8 +106,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1391,7 +1397,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Poid de l'image en Mo (no compressé)</a:t>
+              <a:t>Poids de l'image en Mo (no compressé)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1440,7 +1446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Poid de l'image en Mo</c:v>
+                  <c:v>Poids de l'image en Mo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1870,7 +1876,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Poid de l'image en Mo</a:t>
+                  <a:t>Poids de l'image en Mo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1942,6 +1948,2310 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1556015712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Poids du binaire  INT en Mo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poids du binaire  Int en Mo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4864</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6656</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7424</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7936</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>67.108863999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>507.510784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1719.926784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4294.9672959999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8028.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14353.956864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22658.678784000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33973.862399999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48922.361855999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89099.862015999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114189.92640000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143938.28966400001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>178854.559744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>219473.5104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>274877.90694399999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320084.37760000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>381271.67078399996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450552.39782399999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>528587.16159999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>616061.73081600002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>713687.04000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>800982.040576</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>918653.23929599999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1162670.5059839999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1316508.401664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1450155.4421760002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1630545.1171840001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1785751.1424</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995461.361664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2174327.1935999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F44-436D-825C-3DD48003AA9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591228688"/>
+        <c:axId val="591229168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591228688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>taille de la tuile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591229168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="591229168"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591228688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Poids du binaire  LONG en Mo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poids du binaire  long en Mo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4864</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6656</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7424</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7936</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>134.21772799999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1015.021568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3439.853568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8589.9345919999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16056.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28707.913728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45317.357568000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67947.724799999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97844.723711999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178199.724032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>228379.85280000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287876.57932800002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>357709.119488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>438947.0208</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>549755.81388799998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>640168.75520000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>762543.34156799992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>901104.79564799997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1057174.3232</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1232123.461632</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1427374.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1601964.081152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1837306.478592</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2325341.0119679999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2633016.803328</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2900310.8843520004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3261090.2343680002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3571502.2848</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3990922.7233279999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4348654.3871999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02D2-4931-8E74-5E9870E4AE16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="737739216"/>
+        <c:axId val="737742096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="737739216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>taille de la tuile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737742096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="737742096"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737739216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Poids du binaire  LONG en Mo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poids du binaire  long en Mo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4864</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6656</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7424</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7936</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>134.21772799999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1015.021568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3439.853568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8589.9345919999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16056.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28707.913728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45317.357568000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67947.724799999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97844.723711999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178199.724032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>228379.85280000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287876.57932800002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>357709.119488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>438947.0208</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>549755.81388799998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>640168.75520000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>762543.34156799992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>901104.79564799997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1057174.3232</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1232123.461632</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1427374.0800000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1601964.081152</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1837306.478592</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2325341.0119679999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2633016.803328</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2900310.8843520004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3261090.2343680002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3571502.2848</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3990922.7233279999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4348654.3871999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B31F-4171-B262-9853D4134336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="737739216"/>
+        <c:axId val="737742096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="737739216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2250"/>
+          <c:min val="256"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>taille de la tuile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737742096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="512"/>
+        <c:minorUnit val="256"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="737742096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737739216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Poids du binaire  INT en Mo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poids du binaire  Int en Mo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4864</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6656</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7424</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7936</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>67.108863999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>507.510784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1719.926784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4294.9672959999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8028.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14353.956864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22658.678784000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33973.862399999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48922.361855999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89099.862015999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114189.92640000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>143938.28966400001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>178854.559744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>219473.5104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>274877.90694399999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320084.37760000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>381271.67078399996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>450552.39782399999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>528587.16159999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>616061.73081600002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>713687.04000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>800982.040576</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>918653.23929599999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1162670.5059839999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1316508.401664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1450155.4421760002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1630545.1171840001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1785751.1424</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995461.361664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2174327.1935999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C04B-42F7-8FF4-EC186F7D1D86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591228688"/>
+        <c:axId val="591229168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591228688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000"/>
+          <c:min val="256"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>taille de la tuile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591229168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="256"/>
+        <c:minorUnit val="256"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="591229168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591228688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2110,6 +4420,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3658,20 +6128,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3698,16 +8232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3763,6 +8297,154 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>644236</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>642504</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CBA989-F455-6BF5-29B1-D62BBAE31A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1328117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317638</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B29EBD-5F5E-B26D-89D9-D9BA81E0B3D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>761171</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C2F266-C85E-43B2-BB54-BA3BB7741402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>760268</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E173B52C-F83E-4DF5-AF61-B26B3F51A336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4088,10 +8770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C4EFF3-8438-48DB-A382-1736E50BEAB5}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4103,7 +8785,7 @@
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4114,13 +8796,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>256</v>
       </c>
@@ -4140,8 +8828,16 @@
         <f>D2</f>
         <v>16.777215999999999</v>
       </c>
+      <c r="F2" s="2">
+        <f>E2*4</f>
+        <v>67.108863999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <f>F2*2</f>
+        <v>134.21772799999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+256</f>
         <v>512</v>
@@ -4162,10 +8858,18 @@
         <f t="shared" ref="E3:E33" si="3">D3</f>
         <v>126.877696</v>
       </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F33" si="4">E3*4</f>
+        <v>507.510784</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G33" si="5">F3*2</f>
+        <v>1015.021568</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A18" si="4">A3+256</f>
+        <f t="shared" ref="A4:A18" si="6">A3+256</f>
         <v>768</v>
       </c>
       <c r="B4">
@@ -4184,10 +8888,18 @@
         <f t="shared" si="3"/>
         <v>429.981696</v>
       </c>
+      <c r="F4" s="2">
+        <f t="shared" si="4"/>
+        <v>1719.926784</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="5"/>
+        <v>3439.853568</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1024</v>
       </c>
       <c r="B5">
@@ -4206,10 +8918,18 @@
         <f t="shared" si="3"/>
         <v>1073.741824</v>
       </c>
+      <c r="F5" s="2">
+        <f t="shared" si="4"/>
+        <v>4294.9672959999998</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="5"/>
+        <v>8589.9345919999996</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1280</v>
       </c>
       <c r="B6">
@@ -4228,10 +8948,18 @@
         <f t="shared" si="3"/>
         <v>2007.04</v>
       </c>
+      <c r="F6" s="2">
+        <f t="shared" si="4"/>
+        <v>8028.16</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="5"/>
+        <v>16056.32</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1536</v>
       </c>
       <c r="B7">
@@ -4250,10 +8978,18 @@
         <f t="shared" si="3"/>
         <v>3588.4892159999999</v>
       </c>
+      <c r="F7" s="2">
+        <f t="shared" si="4"/>
+        <v>14353.956864</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>28707.913728</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1792</v>
       </c>
       <c r="B8">
@@ -4272,10 +9008,18 @@
         <f t="shared" si="3"/>
         <v>5664.6696960000008</v>
       </c>
+      <c r="F8" s="2">
+        <f t="shared" si="4"/>
+        <v>22658.678784000003</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="5"/>
+        <v>45317.357568000007</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
       <c r="B9">
@@ -4294,10 +9038,18 @@
         <f t="shared" si="3"/>
         <v>8493.4655999999995</v>
       </c>
+      <c r="F9" s="2">
+        <f t="shared" si="4"/>
+        <v>33973.862399999998</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>67947.724799999996</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2304</v>
       </c>
       <c r="B10">
@@ -4316,10 +9068,18 @@
         <f t="shared" si="3"/>
         <v>12230.590463999999</v>
       </c>
+      <c r="F10" s="2">
+        <f t="shared" si="4"/>
+        <v>48922.361855999996</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="5"/>
+        <v>97844.723711999992</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2560</v>
       </c>
       <c r="B11">
@@ -4338,10 +9098,18 @@
         <f t="shared" si="3"/>
         <v>16384</v>
       </c>
+      <c r="F11" s="2">
+        <f t="shared" si="4"/>
+        <v>65536</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="5"/>
+        <v>131072</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2816</v>
       </c>
       <c r="B12">
@@ -4360,10 +9128,18 @@
         <f t="shared" si="3"/>
         <v>22274.965504</v>
       </c>
+      <c r="F12" s="2">
+        <f t="shared" si="4"/>
+        <v>89099.862015999999</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="5"/>
+        <v>178199.724032</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3072</v>
       </c>
       <c r="B13">
@@ -4382,10 +9158,18 @@
         <f t="shared" si="3"/>
         <v>28547.481600000003</v>
       </c>
+      <c r="F13" s="2">
+        <f t="shared" si="4"/>
+        <v>114189.92640000001</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="5"/>
+        <v>228379.85280000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3328</v>
       </c>
       <c r="B14">
@@ -4404,10 +9188,18 @@
         <f t="shared" si="3"/>
         <v>35984.572416000003</v>
       </c>
+      <c r="F14" s="2">
+        <f t="shared" si="4"/>
+        <v>143938.28966400001</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="5"/>
+        <v>287876.57932800002</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3584</v>
       </c>
       <c r="B15">
@@ -4426,10 +9218,18 @@
         <f t="shared" si="3"/>
         <v>44713.639936</v>
       </c>
+      <c r="F15" s="2">
+        <f t="shared" si="4"/>
+        <v>178854.559744</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="5"/>
+        <v>357709.119488</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3840</v>
       </c>
       <c r="B16">
@@ -4448,10 +9248,18 @@
         <f t="shared" si="3"/>
         <v>54868.3776</v>
       </c>
+      <c r="F16" s="2">
+        <f t="shared" si="4"/>
+        <v>219473.5104</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="5"/>
+        <v>438947.0208</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="B17">
@@ -4470,10 +9278,18 @@
         <f t="shared" si="3"/>
         <v>68719.476735999997</v>
       </c>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
+        <v>274877.90694399999</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="5"/>
+        <v>549755.81388799998</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4352</v>
       </c>
       <c r="B18">
@@ -4492,10 +9308,18 @@
         <f t="shared" si="3"/>
         <v>80021.094400000002</v>
       </c>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
+        <v>320084.37760000001</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="5"/>
+        <v>640168.75520000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" ref="A19:A33" si="5">A18+256</f>
+        <f t="shared" ref="A19:A33" si="7">A18+256</f>
         <v>4608</v>
       </c>
       <c r="B19">
@@ -4503,7 +9327,7 @@
         <v>67</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:C33" si="6">B19*A19</f>
+        <f t="shared" ref="C19:C33" si="8">B19*A19</f>
         <v>308736</v>
       </c>
       <c r="D19" s="1">
@@ -4514,10 +9338,18 @@
         <f t="shared" si="3"/>
         <v>95317.91769599999</v>
       </c>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
+        <v>381271.67078399996</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="5"/>
+        <v>762543.34156799992</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4864</v>
       </c>
       <c r="B20">
@@ -4525,7 +9357,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>335616</v>
       </c>
       <c r="D20" s="1">
@@ -4536,10 +9368,18 @@
         <f t="shared" si="3"/>
         <v>112638.099456</v>
       </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>450552.39782399999</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="5"/>
+        <v>901104.79564799997</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5120</v>
       </c>
       <c r="B21">
@@ -4547,7 +9387,7 @@
         <v>71</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>363520</v>
       </c>
       <c r="D21" s="1">
@@ -4558,10 +9398,18 @@
         <f t="shared" si="3"/>
         <v>132146.7904</v>
       </c>
+      <c r="F21" s="2">
+        <f t="shared" si="4"/>
+        <v>528587.16159999999</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="5"/>
+        <v>1057174.3232</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5376</v>
       </c>
       <c r="B22">
@@ -4569,7 +9417,7 @@
         <v>73</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>392448</v>
       </c>
       <c r="D22" s="1">
@@ -4580,10 +9428,18 @@
         <f t="shared" si="3"/>
         <v>154015.43270400001</v>
       </c>
+      <c r="F22" s="2">
+        <f t="shared" si="4"/>
+        <v>616061.73081600002</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="5"/>
+        <v>1232123.461632</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5632</v>
       </c>
       <c r="B23">
@@ -4591,7 +9447,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>422400</v>
       </c>
       <c r="D23" s="1">
@@ -4602,10 +9458,18 @@
         <f t="shared" si="3"/>
         <v>178421.76000000001</v>
       </c>
+      <c r="F23" s="2">
+        <f t="shared" si="4"/>
+        <v>713687.04000000004</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="5"/>
+        <v>1427374.0800000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5888</v>
       </c>
       <c r="B24">
@@ -4613,7 +9477,7 @@
         <v>76</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>447488</v>
       </c>
       <c r="D24" s="1">
@@ -4624,10 +9488,18 @@
         <f t="shared" si="3"/>
         <v>200245.510144</v>
       </c>
+      <c r="F24" s="2">
+        <f t="shared" si="4"/>
+        <v>800982.040576</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="5"/>
+        <v>1601964.081152</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6144</v>
       </c>
       <c r="B25">
@@ -4635,7 +9507,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>479232</v>
       </c>
       <c r="D25" s="1">
@@ -4646,10 +9518,18 @@
         <f t="shared" si="3"/>
         <v>229663.309824</v>
       </c>
+      <c r="F25" s="2">
+        <f t="shared" si="4"/>
+        <v>918653.23929599999</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="5"/>
+        <v>1837306.478592</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6400</v>
       </c>
       <c r="B26">
@@ -4657,7 +9537,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>512000</v>
       </c>
       <c r="D26" s="1">
@@ -4668,10 +9548,18 @@
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
+      <c r="F26" s="2">
+        <f t="shared" si="4"/>
+        <v>1048576</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="5"/>
+        <v>2097152</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6656</v>
       </c>
       <c r="B27">
@@ -4679,7 +9567,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>539136</v>
       </c>
       <c r="D27" s="1">
@@ -4690,10 +9578,18 @@
         <f t="shared" si="3"/>
         <v>290667.62649599998</v>
       </c>
+      <c r="F27" s="2">
+        <f t="shared" si="4"/>
+        <v>1162670.5059839999</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="5"/>
+        <v>2325341.0119679999</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6912</v>
       </c>
       <c r="B28">
@@ -4701,7 +9597,7 @@
         <v>83</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>573696</v>
       </c>
       <c r="D28" s="1">
@@ -4712,10 +9608,18 @@
         <f t="shared" si="3"/>
         <v>329127.100416</v>
       </c>
+      <c r="F28" s="2">
+        <f t="shared" si="4"/>
+        <v>1316508.401664</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="5"/>
+        <v>2633016.803328</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7168</v>
       </c>
       <c r="B29">
@@ -4723,7 +9627,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>602112</v>
       </c>
       <c r="D29" s="1">
@@ -4734,10 +9638,18 @@
         <f t="shared" si="3"/>
         <v>362538.86054400005</v>
       </c>
+      <c r="F29" s="2">
+        <f t="shared" si="4"/>
+        <v>1450155.4421760002</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="5"/>
+        <v>2900310.8843520004</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7424</v>
       </c>
       <c r="B30">
@@ -4745,7 +9657,7 @@
         <v>86</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>638464</v>
       </c>
       <c r="D30" s="1">
@@ -4756,10 +9668,18 @@
         <f t="shared" si="3"/>
         <v>407636.27929600002</v>
       </c>
+      <c r="F30" s="2">
+        <f t="shared" si="4"/>
+        <v>1630545.1171840001</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="5"/>
+        <v>3261090.2343680002</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7680</v>
       </c>
       <c r="B31">
@@ -4767,7 +9687,7 @@
         <v>87</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>668160</v>
       </c>
       <c r="D31" s="1">
@@ -4778,10 +9698,18 @@
         <f t="shared" si="3"/>
         <v>446437.7856</v>
       </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1785751.1424</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="5"/>
+        <v>3571502.2848</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7936</v>
       </c>
       <c r="B32">
@@ -4800,10 +9728,18 @@
         <f t="shared" si="3"/>
         <v>498865.34041599999</v>
       </c>
+      <c r="F32" s="2">
+        <f t="shared" si="4"/>
+        <v>1995461.361664</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="5"/>
+        <v>3990922.7233279999</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8192</v>
       </c>
       <c r="B33">
@@ -4811,7 +9747,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>737280</v>
       </c>
       <c r="D33" s="1">
@@ -4821,6 +9757,14 @@
       <c r="E33" s="2">
         <f t="shared" si="3"/>
         <v>543581.79839999997</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="4"/>
+        <v>2174327.1935999999</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="5"/>
+        <v>4348654.3871999998</v>
       </c>
     </row>
   </sheetData>

--- a/00_source_doc/grahique.xlsx
+++ b/00_source_doc/grahique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Github\Public_Fractal_Julia\00_source_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D732124-1AB6-4AB1-83CB-5C690B15DB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FECC95D-B87E-459F-B401-9E97DEE5B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BC33957-83C7-40CC-8902-153BE9B49A0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{0BC33957-83C7-40CC-8902-153BE9B49A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -8343,13 +8343,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1328117</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>317638</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8772,8 +8772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C4EFF3-8438-48DB-A382-1736E50BEAB5}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A18" si="6">A3+256</f>
+        <f>A3+256</f>
         <v>768</v>
       </c>
       <c r="B4">
@@ -8899,7 +8899,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A4:A18" si="6">A4+256</f>
         <v>1024</v>
       </c>
       <c r="B5">
@@ -9079,7 +9079,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="6"/>
+        <f>A10+256</f>
         <v>2560</v>
       </c>
       <c r="B11">

--- a/00_source_doc/grahique.xlsx
+++ b/00_source_doc/grahique.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renau\Github\Public_Fractal_Julia\00_source_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FECC95D-B87E-459F-B401-9E97DEE5B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC102BCA-A03E-49EC-8A45-338E571D328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{0BC33957-83C7-40CC-8902-153BE9B49A0B}"/>
+    <workbookView minimized="1" xWindow="28665" yWindow="3930" windowWidth="18900" windowHeight="10965" xr2:uid="{0BC33957-83C7-40CC-8902-153BE9B49A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Taille d'un tuile</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Poids du binaire  Int en Mo</t>
+  </si>
+  <si>
+    <t>Poids du binaire  char en Mo</t>
   </si>
 </sst>
 </file>
@@ -104,10 +107,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2076,7 +2086,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$F$1</c:f>
+              <c:f>Feuil1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2216,7 +2226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$F$2:$F$33</c:f>
+              <c:f>Feuil1!$G$2:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2650,7 +2660,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$G$1</c:f>
+              <c:f>Feuil1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2790,7 +2800,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$G$2:$G$33</c:f>
+              <c:f>Feuil1!$H$2:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3224,7 +3234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$G$1</c:f>
+              <c:f>Feuil1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3364,7 +3374,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$G$2:$G$33</c:f>
+              <c:f>Feuil1!$H$2:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3802,7 +3812,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$F$1</c:f>
+              <c:f>Feuil1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3942,7 +3952,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$F$2:$F$33</c:f>
+              <c:f>Feuil1!$G$2:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="32"/>
@@ -8196,13 +8206,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8232,13 +8242,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -8268,13 +8278,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -8304,13 +8314,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>644236</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>173614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>642504</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>59314</xdr:rowOff>
@@ -8340,16 +8350,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1328117</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>985217</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>317638</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374788</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8376,13 +8386,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>761171</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -8414,13 +8424,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>760268</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -8770,1000 +8780,1135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C4EFF3-8438-48DB-A382-1736E50BEAB5}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="1"/>
+    <col min="7" max="7" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>256</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>ROUNDDOWN( SQRT(A2),0)</f>
         <v>16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <f>B2*A2</f>
         <v>4096</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <f>C2*C2/1000/1000</f>
         <v>16.777215999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <f>D2</f>
         <v>16.777215999999999</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
+        <f>E2*1</f>
+        <v>16.777215999999999</v>
+      </c>
+      <c r="G2" s="3">
         <f>E2*4</f>
         <v>67.108863999999997</v>
       </c>
-      <c r="G2" s="2">
-        <f>F2*2</f>
+      <c r="H2" s="3">
+        <f>G2*2</f>
         <v>134.21772799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <f>A2+256</f>
         <v>512</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f t="shared" ref="B3:B33" si="0">ROUNDDOWN( SQRT(A3),0)</f>
         <v>22</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="1">B3*A3</f>
         <v>11264</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D33" si="2">C3*C3/1000/1000</f>
         <v>126.877696</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E33" si="3">D3</f>
         <v>126.877696</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F33" si="4">E3*4</f>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F33" si="4">E3*1</f>
+        <v>126.877696</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G33" si="5">E3*4</f>
         <v>507.510784</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G33" si="5">F3*2</f>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H33" si="6">G3*2</f>
         <v>1015.021568</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <f>A3+256</f>
         <v>768</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f t="shared" si="1"/>
         <v>20736</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f t="shared" si="2"/>
         <v>429.981696</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f t="shared" si="3"/>
         <v>429.981696</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <f t="shared" si="4"/>
+        <v>429.981696</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="5"/>
         <v>1719.926784</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="5"/>
+      <c r="H4" s="3">
+        <f t="shared" si="6"/>
         <v>3439.853568</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" ref="A4:A18" si="6">A4+256</f>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A18" si="7">A4+256</f>
         <v>1024</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>32768</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f t="shared" si="2"/>
         <v>1073.741824</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f t="shared" si="3"/>
         <v>1073.741824</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <f t="shared" si="4"/>
+        <v>1073.741824</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="5"/>
         <v>4294.9672959999998</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="5"/>
+      <c r="H5" s="3">
+        <f t="shared" si="6"/>
         <v>8589.9345919999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="6"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="7"/>
         <v>1280</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>44800</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>2007.04</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <f t="shared" si="3"/>
         <v>2007.04</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <f t="shared" si="4"/>
+        <v>2007.04</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="5"/>
         <v>8028.16</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="5"/>
+      <c r="H6" s="3">
+        <f t="shared" si="6"/>
         <v>16056.32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="6"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="7"/>
         <v>1536</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>59904</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>3588.4892159999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f t="shared" si="3"/>
         <v>3588.4892159999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <f t="shared" si="4"/>
+        <v>3588.4892159999999</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="5"/>
         <v>14353.956864</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="5"/>
+      <c r="H7" s="3">
+        <f t="shared" si="6"/>
         <v>28707.913728</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="6"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="7"/>
         <v>1792</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>75264</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>5664.6696960000008</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f t="shared" si="3"/>
         <v>5664.6696960000008</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <f t="shared" si="4"/>
+        <v>5664.6696960000008</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="5"/>
         <v>22658.678784000003</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="5"/>
+      <c r="H8" s="3">
+        <f t="shared" si="6"/>
         <v>45317.357568000007</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="6"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>92160</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>8493.4655999999995</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <f t="shared" si="3"/>
         <v>8493.4655999999995</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <f t="shared" si="4"/>
+        <v>8493.4655999999995</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="5"/>
         <v>33973.862399999998</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="5"/>
+      <c r="H9" s="3">
+        <f t="shared" si="6"/>
         <v>67947.724799999996</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="6"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="7"/>
         <v>2304</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>110592</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f t="shared" si="2"/>
         <v>12230.590463999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <f t="shared" si="3"/>
         <v>12230.590463999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <f t="shared" si="4"/>
+        <v>12230.590463999999</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="5"/>
         <v>48922.361855999996</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="5"/>
+      <c r="H10" s="3">
+        <f t="shared" si="6"/>
         <v>97844.723711999992</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <f>A10+256</f>
         <v>2560</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>128000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>16384</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <f t="shared" si="3"/>
         <v>16384</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="5"/>
         <v>65536</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="5"/>
+      <c r="H11" s="3">
+        <f t="shared" si="6"/>
         <v>131072</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="6"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="7"/>
         <v>2816</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>149248</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>22274.965504</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <f t="shared" si="3"/>
         <v>22274.965504</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <f t="shared" si="4"/>
+        <v>22274.965504</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="5"/>
         <v>89099.862015999999</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="5"/>
+      <c r="H12" s="3">
+        <f t="shared" si="6"/>
         <v>178199.724032</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="6"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="7"/>
         <v>3072</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
         <v>168960</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>28547.481600000003</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <f t="shared" si="3"/>
         <v>28547.481600000003</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <f t="shared" si="4"/>
+        <v>28547.481600000003</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="5"/>
         <v>114189.92640000001</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="5"/>
+      <c r="H13" s="3">
+        <f t="shared" si="6"/>
         <v>228379.85280000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="6"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="7"/>
         <v>3328</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>189696</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>35984.572416000003</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f t="shared" si="3"/>
         <v>35984.572416000003</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f t="shared" si="4"/>
+        <v>35984.572416000003</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="5"/>
         <v>143938.28966400001</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="5"/>
+      <c r="H14" s="3">
+        <f t="shared" si="6"/>
         <v>287876.57932800002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="6"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="7"/>
         <v>3584</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>211456</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>44713.639936</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f t="shared" si="3"/>
         <v>44713.639936</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <f t="shared" si="4"/>
+        <v>44713.639936</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="5"/>
         <v>178854.559744</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="5"/>
+      <c r="H15" s="3">
+        <f t="shared" si="6"/>
         <v>357709.119488</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="6"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="7"/>
         <v>3840</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>234240</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>54868.3776</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f t="shared" si="3"/>
         <v>54868.3776</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <f t="shared" si="4"/>
+        <v>54868.3776</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="5"/>
         <v>219473.5104</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" si="5"/>
+      <c r="H16" s="3">
+        <f t="shared" si="6"/>
         <v>438947.0208</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="6"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="7"/>
         <v>4096</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>262144</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>68719.476735999997</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f t="shared" si="3"/>
         <v>68719.476735999997</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <f t="shared" si="4"/>
+        <v>68719.476735999997</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="5"/>
         <v>274877.90694399999</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="5"/>
+      <c r="H17" s="3">
+        <f t="shared" si="6"/>
         <v>549755.81388799998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="6"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="7"/>
         <v>4352</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>282880</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>80021.094400000002</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <f t="shared" si="3"/>
         <v>80021.094400000002</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <f t="shared" si="4"/>
+        <v>80021.094400000002</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
         <v>320084.37760000001</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" si="5"/>
+      <c r="H18" s="3">
+        <f t="shared" si="6"/>
         <v>640168.75520000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" ref="A19:A33" si="7">A18+256</f>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" ref="A19:A33" si="8">A18+256</f>
         <v>4608</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:C33" si="8">B19*A19</f>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:C33" si="9">B19*A19</f>
         <v>308736</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>95317.91769599999</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <f t="shared" si="3"/>
         <v>95317.91769599999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <f t="shared" si="4"/>
+        <v>95317.91769599999</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="5"/>
         <v>381271.67078399996</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="5"/>
+      <c r="H19" s="3">
+        <f t="shared" si="6"/>
         <v>762543.34156799992</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="7"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="8"/>
         <v>4864</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="8"/>
+      <c r="C20" s="2">
+        <f t="shared" si="9"/>
         <v>335616</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>112638.099456</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <f t="shared" si="3"/>
         <v>112638.099456</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <f t="shared" si="4"/>
+        <v>112638.099456</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="5"/>
         <v>450552.39782399999</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="5"/>
+      <c r="H20" s="3">
+        <f t="shared" si="6"/>
         <v>901104.79564799997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="7"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="8"/>
         <v>5120</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="8"/>
+      <c r="C21" s="2">
+        <f t="shared" si="9"/>
         <v>363520</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f t="shared" si="2"/>
         <v>132146.7904</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <f t="shared" si="3"/>
         <v>132146.7904</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <f t="shared" si="4"/>
+        <v>132146.7904</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="5"/>
         <v>528587.16159999999</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="5"/>
+      <c r="H21" s="3">
+        <f t="shared" si="6"/>
         <v>1057174.3232</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="7"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="8"/>
         <v>5376</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="8"/>
+      <c r="C22" s="2">
+        <f t="shared" si="9"/>
         <v>392448</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f t="shared" si="2"/>
         <v>154015.43270400001</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <f t="shared" si="3"/>
         <v>154015.43270400001</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <f t="shared" si="4"/>
+        <v>154015.43270400001</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="5"/>
         <v>616061.73081600002</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="5"/>
+      <c r="H22" s="3">
+        <f t="shared" si="6"/>
         <v>1232123.461632</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="7"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="8"/>
         <v>5632</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="8"/>
+      <c r="C23" s="2">
+        <f t="shared" si="9"/>
         <v>422400</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f t="shared" si="2"/>
         <v>178421.76000000001</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <f t="shared" si="3"/>
         <v>178421.76000000001</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <f t="shared" si="4"/>
+        <v>178421.76000000001</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="5"/>
         <v>713687.04000000004</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="5"/>
+      <c r="H23" s="3">
+        <f t="shared" si="6"/>
         <v>1427374.0800000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="7"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="8"/>
         <v>5888</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="8"/>
+      <c r="C24" s="2">
+        <f t="shared" si="9"/>
         <v>447488</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f t="shared" si="2"/>
         <v>200245.510144</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <f t="shared" si="3"/>
         <v>200245.510144</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <f t="shared" si="4"/>
+        <v>200245.510144</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="5"/>
         <v>800982.040576</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="5"/>
+      <c r="H24" s="3">
+        <f t="shared" si="6"/>
         <v>1601964.081152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="7"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="8"/>
         <v>6144</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="8"/>
+      <c r="C25" s="2">
+        <f t="shared" si="9"/>
         <v>479232</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f t="shared" si="2"/>
         <v>229663.309824</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <f t="shared" si="3"/>
         <v>229663.309824</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <f t="shared" si="4"/>
+        <v>229663.309824</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="5"/>
         <v>918653.23929599999</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="5"/>
+      <c r="H25" s="3">
+        <f t="shared" si="6"/>
         <v>1837306.478592</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="7"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="8"/>
         <v>6400</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="8"/>
+      <c r="C26" s="2">
+        <f t="shared" si="9"/>
         <v>512000</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <f t="shared" si="3"/>
         <v>262144</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <f t="shared" si="4"/>
+        <v>262144</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="5"/>
         <v>1048576</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" si="5"/>
+      <c r="H26" s="3">
+        <f t="shared" si="6"/>
         <v>2097152</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="7"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="8"/>
         <v>6656</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="8"/>
+      <c r="C27" s="2">
+        <f t="shared" si="9"/>
         <v>539136</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>290667.62649599998</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <f t="shared" si="3"/>
         <v>290667.62649599998</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <f t="shared" si="4"/>
+        <v>290667.62649599998</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="5"/>
         <v>1162670.5059839999</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" si="5"/>
+      <c r="H27" s="3">
+        <f t="shared" si="6"/>
         <v>2325341.0119679999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="7"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="8"/>
         <v>6912</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="8"/>
+      <c r="C28" s="2">
+        <f t="shared" si="9"/>
         <v>573696</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>329127.100416</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <f t="shared" si="3"/>
         <v>329127.100416</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <f t="shared" si="4"/>
+        <v>329127.100416</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="5"/>
         <v>1316508.401664</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="5"/>
+      <c r="H28" s="3">
+        <f t="shared" si="6"/>
         <v>2633016.803328</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="7"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="8"/>
         <v>7168</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="C29" s="1">
-        <f t="shared" si="8"/>
+      <c r="C29" s="2">
+        <f t="shared" si="9"/>
         <v>602112</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>362538.86054400005</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <f t="shared" si="3"/>
         <v>362538.86054400005</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <f t="shared" si="4"/>
+        <v>362538.86054400005</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="5"/>
         <v>1450155.4421760002</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="5"/>
+      <c r="H29" s="3">
+        <f t="shared" si="6"/>
         <v>2900310.8843520004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="7"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="8"/>
         <v>7424</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" si="8"/>
+      <c r="C30" s="2">
+        <f t="shared" si="9"/>
         <v>638464</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <f t="shared" si="2"/>
         <v>407636.27929600002</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <f t="shared" si="3"/>
         <v>407636.27929600002</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <f t="shared" si="4"/>
+        <v>407636.27929600002</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="5"/>
         <v>1630545.1171840001</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="5"/>
+      <c r="H30" s="3">
+        <f t="shared" si="6"/>
         <v>3261090.2343680002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="7"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="8"/>
         <v>7680</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="8"/>
+      <c r="C31" s="2">
+        <f t="shared" si="9"/>
         <v>668160</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <f t="shared" si="2"/>
         <v>446437.7856</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <f t="shared" si="3"/>
         <v>446437.7856</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <f t="shared" si="4"/>
+        <v>446437.7856</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="5"/>
         <v>1785751.1424</v>
       </c>
-      <c r="G31" s="2">
-        <f t="shared" si="5"/>
+      <c r="H31" s="3">
+        <f t="shared" si="6"/>
         <v>3571502.2848</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="7"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="8"/>
         <v>7936</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <f>B32*A32</f>
         <v>706304</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <f t="shared" si="2"/>
         <v>498865.34041599999</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <f t="shared" si="3"/>
         <v>498865.34041599999</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <f t="shared" si="4"/>
+        <v>498865.34041599999</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="5"/>
         <v>1995461.361664</v>
       </c>
-      <c r="G32" s="2">
-        <f t="shared" si="5"/>
+      <c r="H32" s="3">
+        <f t="shared" si="6"/>
         <v>3990922.7233279999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="7"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="8"/>
         <v>8192</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" si="8"/>
+      <c r="C33" s="2">
+        <f t="shared" si="9"/>
         <v>737280</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>543581.79839999997</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <f t="shared" si="3"/>
         <v>543581.79839999997</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <f t="shared" si="4"/>
+        <v>543581.79839999997</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="5"/>
         <v>2174327.1935999999</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="5"/>
+      <c r="H33" s="3">
+        <f t="shared" si="6"/>
         <v>4348654.3871999998</v>
       </c>
     </row>
